--- a/data/trans_camb/IP16B10-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16B10-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-76,28; 0,0</t>
+          <t>-71,65; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-54,56; 0,0</t>
+          <t>-61,68; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-76,28; 0,0</t>
+          <t>-71,65; 0,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-54,56; 0,0</t>
+          <t>-61,68; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-67,45; 0,0</t>
+          <t>-66,67; 0,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1127,12 +1127,12 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-37,88; 0,0</t>
+          <t>-39,02; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-66,95; 0,0</t>
+          <t>-75,39; 0,0</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-67,45; 0,0</t>
+          <t>-66,67; 0,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1203,12 +1203,12 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-37,88; 0,0</t>
+          <t>-39,02; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-66,95; 0,0</t>
+          <t>-75,39; 0,0</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP16B10-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/IP16B10-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -527,13 +527,13 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="F1" s="3" t="n"/>
@@ -601,17 +601,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -677,17 +677,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -757,17 +757,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>-18,69</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-71,65; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -805,7 +805,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,0; 0,0</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -815,7 +815,7 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-61,68; 0,0</t>
+          <t>-64,62; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -833,17 +833,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-18,69%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -871,7 +871,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-71,65; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -881,7 +881,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-80,0; 0,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -891,7 +891,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-61,68; 0,0</t>
+          <t>-64,62; 0,0</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -913,22 +913,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-100,0</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-100,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -989,22 +989,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="F14" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1069,22 +1069,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-33,44</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>-15,93</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-33,44</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-66,67; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,74; 0,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-39,02; 0,0</t>
+          <t>-37,2; 0,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-75,39; 0,0</t>
+          <t>-74,19; 0,0</t>
         </is>
       </c>
     </row>
@@ -1145,22 +1145,22 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-33,44%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>-15,93%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-33,44%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-66,67; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 0,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,74; 0,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-39,02; 0,0</t>
+          <t>-37,2; 0,0</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-75,39; 0,0</t>
+          <t>-74,19; 0,0</t>
         </is>
       </c>
     </row>
